--- a/SqlServerDBTable/音乐相关/MST.xlsx
+++ b/SqlServerDBTable/音乐相关/MST.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="19200" windowHeight="12090"/>
+    <workbookView windowWidth="28695" windowHeight="13050" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T_TRACK_TYPE_MST" sheetId="1" r:id="rId1"/>
     <sheet name="T_ALBUM_TYPE_MST" sheetId="2" r:id="rId2"/>
     <sheet name="T_RESOURCE_TYPE_MST" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>TRACK_TYPE_ID</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>片</t>
     </r>
     <r>
@@ -44,9 +50,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>头</t>
     </r>
@@ -55,9 +59,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>曲</t>
     </r>
@@ -67,6 +69,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>片</t>
     </r>
     <r>
@@ -74,9 +82,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>头</t>
     </r>
@@ -85,9 +91,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>曲(无演唱)</t>
     </r>
@@ -97,6 +101,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>片</t>
     </r>
     <r>
@@ -104,9 +114,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>头</t>
     </r>
@@ -115,9 +123,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
         <charset val="128"/>
-        <scheme val="minor"/>
       </rPr>
       <t>曲(伴奏)</t>
     </r>
@@ -136,66 +142,57 @@
   </si>
   <si>
     <t>ED(Inst.)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>片尾曲(伴奏)</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>插入曲</t>
+  </si>
+  <si>
+    <t>IN(Inst.)</t>
+  </si>
+  <si>
+    <t>插入曲(伴奏)</t>
   </si>
   <si>
     <t>IM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插入曲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN(Inst.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插入曲(伴奏)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>印象曲</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>IM(Inst.)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>印象曲(伴奏)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CS</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>角色曲</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>CS(Inst.)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>角色曲(伴奏)</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>BGM</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>背景音</t>
     </r>
     <r>
@@ -203,28 +200,51 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>乐</t>
     </r>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Sound</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>短声音</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Drama</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>广播</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>剧</t>
+    </r>
   </si>
   <si>
     <t>Radio</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>广播</t>
     </r>
     <r>
@@ -232,20 +252,144 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>剧</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Drama</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
+      </rPr>
+      <t>节目</t>
+    </r>
+  </si>
+  <si>
+    <t>OP c/w</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头曲Coupling曲</t>
+    </r>
+  </si>
+  <si>
+    <t>OP c/w(Inst.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>头曲Coupling曲（伴奏）</t>
+    </r>
+  </si>
+  <si>
+    <t>ED c/w</t>
+  </si>
+  <si>
+    <t>片尾曲Coupling曲</t>
+  </si>
+  <si>
+    <t>ED c/w(Inst.)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>片尾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>曲Coupling曲（伴奏）</t>
+    </r>
+  </si>
+  <si>
+    <t>IN c/w</t>
+  </si>
+  <si>
+    <t>插入曲Coupling曲</t>
+  </si>
+  <si>
+    <t>IN c/w(Inst.)</t>
+  </si>
+  <si>
+    <t>插入曲Coupling曲（伴奏）</t>
+  </si>
+  <si>
+    <t>ALBUM_TYPE_ID</t>
+  </si>
+  <si>
+    <t>ALBUM_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>OP+ED</t>
+  </si>
+  <si>
+    <t>片头&amp;片尾曲</t>
+  </si>
+  <si>
+    <t>OST</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>原声音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>乐</t>
+    </r>
+  </si>
+  <si>
+    <t>短声音集</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>广播</t>
     </r>
     <r>
@@ -253,118 +397,132 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>节目</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>片尾曲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+      </rPr>
+      <t>剧(角色)</t>
+    </r>
+  </si>
+  <si>
+    <t>RESOURCE_TYPE_ID</t>
+  </si>
+  <si>
+    <t>RESOURCE_TYPE_NAME</t>
+  </si>
+  <si>
+    <t>DEFAULT_EXT</t>
+  </si>
+  <si>
+    <t>mp3音源</t>
+  </si>
+  <si>
+    <t>MP3音源文件</t>
+  </si>
+  <si>
+    <t>.mp3</t>
+  </si>
+  <si>
+    <t>封面(jpg)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jpg封面/封底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>头</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+  </si>
+  <si>
+    <t>.jpg</t>
+  </si>
+  <si>
+    <t>封面(png)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曲</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OST</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>原声音</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+      </rPr>
+      <t>png封面/封底</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>乐</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>广播</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
+      </rPr>
+      <t>图片</t>
+    </r>
+  </si>
+  <si>
+    <t>.png</t>
+  </si>
+  <si>
+    <t>bk扫图(jpg)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>jpg booket</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
         <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>剧(角色)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>短声音集</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALBUM_TYPE_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ALBUM_TYPE_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESOURCE_TYPE_ID</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>RESOURCE_TYPE_NAME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DESCRIPTION</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mp3音源</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MP3音源文件</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
+      </rPr>
+      <t>扫图</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
+      <t>歌</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="134"/>
+      </rPr>
+      <t>词(lrc)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <charset val="128"/>
+      </rPr>
       <t>lrc歌</t>
     </r>
     <r>
@@ -372,240 +530,388 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>词文件</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>DEFAULT_EXT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.mp3</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>.lrc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>歌</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>词(lrc)</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>封面(jpg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>jpg封面/封底</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>图片</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.jpg</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>bk扫图(jpg)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>jpg booket</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>扫图</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>封面(png)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>png封面/封底</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>图片</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>.png</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OP c/w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OP c/w(Inst.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>头曲Coupling曲</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>片</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>头曲Coupling曲（伴奏）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ED c/w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ED c/w(Inst.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>片尾曲Coupling曲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>片尾</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>曲Coupling曲（伴奏）</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN c/w</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>IN c/w(Inst.)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插入曲Coupling曲</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>插入曲Coupling曲（伴奏）</t>
-    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="mm:ss\."/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="2"/>
+      <name val="宋体"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -613,9 +919,251 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -623,18 +1171,65 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -922,20 +1517,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="22.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -968,7 +1564,7 @@
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
@@ -986,7 +1582,7 @@
       <c r="E3">
         <v>0</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
@@ -1004,7 +1600,7 @@
       <c r="E4">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -1022,7 +1618,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
@@ -1040,9 +1636,9 @@
       <c r="E6">
         <v>0</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>1101</v>
       </c>
@@ -1059,15 +1655,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>1200</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1076,15 +1672,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>1201</v>
       </c>
       <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
         <v>20</v>
-      </c>
-      <c r="C9" t="s">
-        <v>21</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1093,12 +1689,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>1300</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
@@ -1110,7 +1706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>1301</v>
       </c>
@@ -1127,7 +1723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>1400</v>
       </c>
@@ -1144,7 +1740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>1401</v>
       </c>
@@ -1161,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>2000</v>
       </c>
@@ -1178,7 +1774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>3000</v>
       </c>
@@ -1195,12 +1791,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>4000</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>34</v>
@@ -1217,7 +1813,7 @@
         <v>5000</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
         <v>36</v>
@@ -1234,10 +1830,10 @@
         <v>1020</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -1251,10 +1847,10 @@
         <v>1021</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="C19" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1268,10 +1864,10 @@
         <v>1120</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>69</v>
+        <v>41</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -1285,10 +1881,10 @@
         <v>1121</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="C21" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -1302,10 +1898,10 @@
         <v>1220</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>73</v>
+        <v>45</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -1319,10 +1915,10 @@
         <v>1221</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>74</v>
+        <v>47</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -1332,26 +1928,29 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:C7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -1365,7 +1964,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1376,7 +1975,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1384,10 +1983,10 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
         <v>18</v>
-      </c>
-      <c r="C4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1395,7 +1994,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
@@ -1414,77 +2013,89 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B10" t="s">
         <v>33</v>
       </c>
       <c r="C10" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
         <v>36</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B1" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C1" t="s">
-        <v>47</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -1492,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1506,13 +2117,13 @@
         <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="D3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1520,27 +2131,27 @@
         <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>111</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>58</v>
+      <c r="B5" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1548,18 +2159,18 @@
         <v>201</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>